--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_8_26.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_8_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1686207.86964214</v>
+        <v>1684001.776235702</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.4937673436</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +662,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>331.5778710391581</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>14.0301000117425</v>
+        <v>414.0301000117425</v>
       </c>
       <c r="H2" t="n">
-        <v>326.4414032841482</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>161.4125322208645</v>
+        <v>103.8788174678159</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>69.9268023686672</v>
+        <v>69.92680236866788</v>
       </c>
       <c r="S2" t="n">
-        <v>180.0198424776875</v>
+        <v>180.0198424776878</v>
       </c>
       <c r="T2" t="n">
         <v>217.5248788930305</v>
@@ -716,13 +716,13 @@
         <v>251.2438419075651</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,13 +735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>21.10214951438846</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>21.10214951440107</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -753,10 +753,10 @@
         <v>136.6625960688247</v>
       </c>
       <c r="H3" t="n">
-        <v>105.6591799828218</v>
+        <v>105.6591799828219</v>
       </c>
       <c r="I3" t="n">
-        <v>65.9526390315486</v>
+        <v>65.9526390315488</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>57.88099638015525</v>
+        <v>57.8809963801556</v>
       </c>
       <c r="S3" t="n">
-        <v>159.035360425222</v>
+        <v>159.0353604252221</v>
       </c>
       <c r="T3" t="n">
-        <v>197.4201388450818</v>
+        <v>197.4201388450819</v>
       </c>
       <c r="U3" t="n">
         <v>225.8965846405547</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>61.1009819697879</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -829,16 +829,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>129.8949928423852</v>
+        <v>167.4201179865476</v>
       </c>
       <c r="H4" t="n">
         <v>157.1516959462661</v>
       </c>
       <c r="I4" t="n">
-        <v>138.28311657924</v>
+        <v>138.2831165792402</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>52.99928112255645</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>151.625388236511</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>191.7606336094309</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>85.7283407546892</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,10 +947,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>166.5331836498671</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>22.98569063694827</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1069,7 +1069,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>59.66385641544528</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1145,13 +1145,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>76.15437082176213</v>
+        <v>19.76755821211439</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>194.0270836661628</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1385,10 +1385,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873213</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292658</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1534,10 +1534,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>43.54171107304529</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>284.4676194244594</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G14" t="n">
         <v>410.9217256534534</v>
@@ -1658,7 +1658,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1771,10 +1771,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
@@ -1783,7 +1783,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1819,19 +1819,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>222.4219163636949</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>141.4201311755209</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>35.19569619650086</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>113.745389857184</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2053,22 +2053,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2239,22 +2239,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>18.93482921064975</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>178.2172294342836</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2299,10 +2299,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2479,10 +2479,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>57.98576519627105</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>99.13931750950185</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2710,19 +2710,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>113.905986964454</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2761,16 +2761,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>235.9955072668619</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2956,19 +2956,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,13 +2998,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>71.63129640075013</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>43.54171107304293</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,16 +3184,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
@@ -3241,10 +3241,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>270.0697021486463</v>
+        <v>150.810916220955</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3266,25 +3266,25 @@
         <v>347.2384253774349</v>
       </c>
       <c r="C35" t="n">
-        <v>329.7774754849618</v>
+        <v>329.7774754849619</v>
       </c>
       <c r="D35" t="n">
-        <v>319.1876253346372</v>
+        <v>319.1876253346373</v>
       </c>
       <c r="E35" t="n">
         <v>346.4349537862161</v>
       </c>
       <c r="F35" t="n">
-        <v>371.3806294556657</v>
+        <v>371.3806294556658</v>
       </c>
       <c r="G35" t="n">
-        <v>375.4263093674077</v>
+        <v>375.4263093674078</v>
       </c>
       <c r="H35" t="n">
-        <v>259.1123481012747</v>
+        <v>259.1123481012748</v>
       </c>
       <c r="I35" t="n">
-        <v>6.081513486880198</v>
+        <v>6.081513486880276</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>73.69234550213008</v>
+        <v>73.69234550213014</v>
       </c>
       <c r="T35" t="n">
-        <v>168.4225538535744</v>
+        <v>168.4225538535745</v>
       </c>
       <c r="U35" t="n">
-        <v>215.4997556728562</v>
+        <v>215.4997556728563</v>
       </c>
       <c r="V35" t="n">
-        <v>292.2568421840891</v>
+        <v>292.2568421840892</v>
       </c>
       <c r="W35" t="n">
         <v>313.7455524313673</v>
       </c>
       <c r="X35" t="n">
-        <v>334.2356843924233</v>
+        <v>334.2356843924234</v>
       </c>
       <c r="Y35" t="n">
-        <v>350.7425223700078</v>
+        <v>350.7425223700079</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3363,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247738</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>144.3365638958915</v>
+        <v>144.3365638958916</v>
       </c>
       <c r="C37" t="n">
-        <v>131.7514048125821</v>
+        <v>28.84832416907651</v>
       </c>
       <c r="D37" t="n">
-        <v>113.1200567321666</v>
+        <v>113.1200567321667</v>
       </c>
       <c r="E37" t="n">
-        <v>110.9385463605234</v>
+        <v>110.9385463605235</v>
       </c>
       <c r="F37" t="n">
-        <v>109.9256317368855</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>130.5303919729825</v>
+        <v>130.5303919729826</v>
       </c>
       <c r="H37" t="n">
-        <v>109.259598628275</v>
+        <v>109.2595986282751</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>24.66155699373527</v>
+        <v>53.43673638400166</v>
       </c>
       <c r="S37" t="n">
-        <v>154.2736090453961</v>
+        <v>154.2736090453962</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>184.0535329901235</v>
       </c>
       <c r="U37" t="n">
-        <v>250.7164219195671</v>
+        <v>250.7164219195672</v>
       </c>
       <c r="V37" t="n">
-        <v>216.6422270377822</v>
+        <v>216.6422270377823</v>
       </c>
       <c r="W37" t="n">
-        <v>251.0275820505452</v>
+        <v>251.0275820505453</v>
       </c>
       <c r="X37" t="n">
-        <v>190.2142391029914</v>
+        <v>190.2142391029915</v>
       </c>
       <c r="Y37" t="n">
-        <v>183.089237066049</v>
+        <v>183.0892370660491</v>
       </c>
     </row>
     <row r="38">
@@ -3503,25 +3503,25 @@
         <v>347.2384253774349</v>
       </c>
       <c r="C38" t="n">
-        <v>329.7774754849618</v>
+        <v>329.7774754849619</v>
       </c>
       <c r="D38" t="n">
-        <v>319.1876253346372</v>
+        <v>319.1876253346373</v>
       </c>
       <c r="E38" t="n">
         <v>346.4349537862161</v>
       </c>
       <c r="F38" t="n">
-        <v>371.3806294556657</v>
+        <v>371.3806294556658</v>
       </c>
       <c r="G38" t="n">
-        <v>375.4263093674077</v>
+        <v>375.4263093674078</v>
       </c>
       <c r="H38" t="n">
-        <v>259.1123481012752</v>
+        <v>259.1123481012748</v>
       </c>
       <c r="I38" t="n">
-        <v>6.081513486880198</v>
+        <v>6.081513486880283</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>73.69234550213008</v>
+        <v>73.69234550213017</v>
       </c>
       <c r="T38" t="n">
-        <v>168.4225538535744</v>
+        <v>168.4225538535745</v>
       </c>
       <c r="U38" t="n">
-        <v>215.4997556728562</v>
+        <v>215.4997556728563</v>
       </c>
       <c r="V38" t="n">
-        <v>292.2568421840891</v>
+        <v>292.2568421840892</v>
       </c>
       <c r="W38" t="n">
         <v>313.7455524313673</v>
       </c>
       <c r="X38" t="n">
-        <v>334.2356843924233</v>
+        <v>334.2356843924234</v>
       </c>
       <c r="Y38" t="n">
-        <v>350.7425223700078</v>
+        <v>350.7425223700079</v>
       </c>
     </row>
     <row r="39">
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>33.34718240398625</v>
+        <v>144.3365638958916</v>
       </c>
       <c r="C40" t="n">
-        <v>131.7514048125821</v>
+        <v>131.7514048125822</v>
       </c>
       <c r="D40" t="n">
-        <v>113.1200567321666</v>
+        <v>23.48787321810639</v>
       </c>
       <c r="E40" t="n">
-        <v>110.9385463605234</v>
+        <v>110.9385463605235</v>
       </c>
       <c r="F40" t="n">
-        <v>109.9256317368855</v>
+        <v>109.9256317368856</v>
       </c>
       <c r="G40" t="n">
-        <v>130.5303919729825</v>
+        <v>130.5303919729826</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>109.2595986282751</v>
       </c>
       <c r="I40" t="n">
-        <v>60.85700412379234</v>
+        <v>60.85700412379242</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>53.43673638400166</v>
       </c>
       <c r="S40" t="n">
-        <v>154.2736090453961</v>
+        <v>154.2736090453962</v>
       </c>
       <c r="T40" t="n">
-        <v>184.0535329901234</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>250.7164219195671</v>
+        <v>250.7164219195672</v>
       </c>
       <c r="V40" t="n">
-        <v>216.6422270377822</v>
+        <v>216.6422270377823</v>
       </c>
       <c r="W40" t="n">
-        <v>251.0275820505452</v>
+        <v>251.0275820505453</v>
       </c>
       <c r="X40" t="n">
-        <v>190.2142391029914</v>
+        <v>190.2142391029915</v>
       </c>
       <c r="Y40" t="n">
-        <v>183.089237066049</v>
+        <v>183.0892370660491</v>
       </c>
     </row>
     <row r="41">
@@ -3755,10 +3755,10 @@
         <v>375.4263093674077</v>
       </c>
       <c r="H41" t="n">
-        <v>259.1123481012752</v>
+        <v>259.1123481012747</v>
       </c>
       <c r="I41" t="n">
-        <v>6.081513486880198</v>
+        <v>6.081513486880247</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,16 +3788,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>73.69234550213008</v>
+        <v>73.69234550213014</v>
       </c>
       <c r="T41" t="n">
         <v>168.4225538535744</v>
       </c>
       <c r="U41" t="n">
-        <v>215.4997556728562</v>
+        <v>215.4997556728563</v>
       </c>
       <c r="V41" t="n">
-        <v>292.2568421840891</v>
+        <v>292.2568421840892</v>
       </c>
       <c r="W41" t="n">
         <v>313.7455524313673</v>
@@ -3806,7 +3806,7 @@
         <v>334.2356843924233</v>
       </c>
       <c r="Y41" t="n">
-        <v>350.7425223700078</v>
+        <v>350.7425223700079</v>
       </c>
     </row>
     <row r="42">
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>144.3365638958915</v>
+        <v>144.3365638958916</v>
       </c>
       <c r="C43" t="n">
-        <v>29.86123879271611</v>
+        <v>131.7514048125821</v>
       </c>
       <c r="D43" t="n">
-        <v>113.1200567321666</v>
+        <v>113.1200567321667</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>109.9256317368855</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>130.5303919729825</v>
       </c>
       <c r="H43" t="n">
-        <v>109.259598628275</v>
+        <v>109.2595986282751</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>60.8570041237924</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>53.43673638400158</v>
+        <v>53.43673638400163</v>
       </c>
       <c r="S43" t="n">
-        <v>154.2736090453961</v>
+        <v>154.2736090453962</v>
       </c>
       <c r="T43" t="n">
-        <v>184.0535329901234</v>
+        <v>184.0535329901235</v>
       </c>
       <c r="U43" t="n">
-        <v>250.7164219195671</v>
+        <v>250.7164219195672</v>
       </c>
       <c r="V43" t="n">
-        <v>216.6422270377822</v>
+        <v>216.6422270377823</v>
       </c>
       <c r="W43" t="n">
-        <v>251.0275820505452</v>
+        <v>251.0275820505453</v>
       </c>
       <c r="X43" t="n">
-        <v>190.2142391029914</v>
+        <v>137.3927006962175</v>
       </c>
       <c r="Y43" t="n">
-        <v>183.089237066049</v>
+        <v>183.0892370660491</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>259.1123481012747</v>
       </c>
       <c r="I44" t="n">
-        <v>6.081513486880247</v>
+        <v>6.081513486880255</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4037,7 +4037,7 @@
         <v>292.2568421840892</v>
       </c>
       <c r="W44" t="n">
-        <v>313.7455524313673</v>
+        <v>313.7455524313676</v>
       </c>
       <c r="X44" t="n">
         <v>334.2356843924233</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4135,13 +4135,13 @@
         <v>144.3365638958916</v>
       </c>
       <c r="C46" t="n">
-        <v>131.7514048125821</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>113.1200567321667</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>73.77880330639107</v>
+        <v>110.9385463605235</v>
       </c>
       <c r="F46" t="n">
         <v>109.9256317368855</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>24.62248142456724</v>
       </c>
       <c r="S46" t="n">
         <v>154.2736090453962</v>
@@ -4201,7 +4201,7 @@
         <v>190.2142391029915</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>183.0892370660491</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1686.91262593571</v>
+        <v>982.3839803310461</v>
       </c>
       <c r="C2" t="n">
-        <v>1686.91262593571</v>
+        <v>982.3839803310461</v>
       </c>
       <c r="D2" t="n">
-        <v>1351.985483471914</v>
+        <v>982.3839803310461</v>
       </c>
       <c r="E2" t="n">
-        <v>966.1972308736695</v>
+        <v>982.3839803310461</v>
       </c>
       <c r="F2" t="n">
-        <v>555.2113260840619</v>
+        <v>571.3980755414386</v>
       </c>
       <c r="G2" t="n">
-        <v>541.0395078903825</v>
+        <v>153.1858533073553</v>
       </c>
       <c r="H2" t="n">
-        <v>211.3007166942733</v>
+        <v>153.1858533073553</v>
       </c>
       <c r="I2" t="n">
-        <v>48.25775485501623</v>
+        <v>48.25775485501598</v>
       </c>
       <c r="J2" t="n">
-        <v>143.3613405244778</v>
+        <v>143.3613405244766</v>
       </c>
       <c r="K2" t="n">
-        <v>406.641766629349</v>
+        <v>406.6417666293464</v>
       </c>
       <c r="L2" t="n">
-        <v>785.5410436024617</v>
+        <v>785.5410436024574</v>
       </c>
       <c r="M2" t="n">
-        <v>1223.746040782768</v>
+        <v>1223.746040782762</v>
       </c>
       <c r="N2" t="n">
-        <v>1654.409655400858</v>
+        <v>1654.40965540085</v>
       </c>
       <c r="O2" t="n">
-        <v>2015.885456671741</v>
+        <v>2015.885456671731</v>
       </c>
       <c r="P2" t="n">
-        <v>2286.722307110673</v>
+        <v>2286.722307110662</v>
       </c>
       <c r="Q2" t="n">
-        <v>2412.887742750811</v>
+        <v>2412.887742750799</v>
       </c>
       <c r="R2" t="n">
-        <v>2342.254609045087</v>
+        <v>2342.254609045074</v>
       </c>
       <c r="S2" t="n">
-        <v>2160.41638432015</v>
+        <v>2160.416384320137</v>
       </c>
       <c r="T2" t="n">
-        <v>1940.6942844282</v>
+        <v>1940.694284428187</v>
       </c>
       <c r="U2" t="n">
-        <v>1686.91262593571</v>
+        <v>1686.912625935697</v>
       </c>
       <c r="V2" t="n">
-        <v>1686.91262593571</v>
+        <v>1355.849738592126</v>
       </c>
       <c r="W2" t="n">
-        <v>1686.91262593571</v>
+        <v>1355.849738592126</v>
       </c>
       <c r="X2" t="n">
-        <v>1686.91262593571</v>
+        <v>982.3839803310461</v>
       </c>
       <c r="Y2" t="n">
-        <v>1686.91262593571</v>
+        <v>982.3839803310461</v>
       </c>
     </row>
     <row r="3">
@@ -4383,10 +4383,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>861.1863977183464</v>
+        <v>839.8710951785473</v>
       </c>
       <c r="C3" t="n">
-        <v>686.7333684372194</v>
+        <v>665.4180658974203</v>
       </c>
       <c r="D3" t="n">
         <v>665.4180658974203</v>
@@ -4401,58 +4401,58 @@
         <v>221.6030265867035</v>
       </c>
       <c r="H3" t="n">
-        <v>114.8765821596108</v>
+        <v>114.8765821596107</v>
       </c>
       <c r="I3" t="n">
-        <v>48.25775485501623</v>
+        <v>48.25775485501598</v>
       </c>
       <c r="J3" t="n">
-        <v>48.25775485501623</v>
+        <v>111.2074192719573</v>
       </c>
       <c r="K3" t="n">
-        <v>149.6153884757256</v>
+        <v>345.4192653503496</v>
       </c>
       <c r="L3" t="n">
-        <v>525.9465153519684</v>
+        <v>721.7503922265912</v>
       </c>
       <c r="M3" t="n">
-        <v>1017.086411664339</v>
+        <v>1212.89028853896</v>
       </c>
       <c r="N3" t="n">
-        <v>1536.932332987182</v>
+        <v>1732.736209861802</v>
       </c>
       <c r="O3" t="n">
-        <v>1946.074112602206</v>
+        <v>2141.877989476825</v>
       </c>
       <c r="P3" t="n">
-        <v>2257.443393642315</v>
+        <v>2257.443393642304</v>
       </c>
       <c r="Q3" t="n">
-        <v>2412.887742750811</v>
+        <v>2412.887742750799</v>
       </c>
       <c r="R3" t="n">
-        <v>2354.422089841564</v>
+        <v>2354.422089841551</v>
       </c>
       <c r="S3" t="n">
-        <v>2193.780311634269</v>
+        <v>2193.780311634256</v>
       </c>
       <c r="T3" t="n">
-        <v>1994.36602997257</v>
+        <v>1994.366029972557</v>
       </c>
       <c r="U3" t="n">
-        <v>1766.187661648777</v>
+        <v>1766.187661648765</v>
       </c>
       <c r="V3" t="n">
-        <v>1531.035553417035</v>
+        <v>1531.035553417022</v>
       </c>
       <c r="W3" t="n">
-        <v>1276.798196688833</v>
+        <v>1276.79819668882</v>
       </c>
       <c r="X3" t="n">
-        <v>1068.9466964833</v>
+        <v>1068.946696483287</v>
       </c>
       <c r="Y3" t="n">
-        <v>861.1863977183464</v>
+        <v>861.1863977183336</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>477.8838208831893</v>
+        <v>569.3226150919962</v>
       </c>
       <c r="C4" t="n">
-        <v>477.8838208831893</v>
+        <v>569.3226150919962</v>
       </c>
       <c r="D4" t="n">
-        <v>477.8838208831893</v>
+        <v>569.3226150919962</v>
       </c>
       <c r="E4" t="n">
-        <v>477.8838208831893</v>
+        <v>569.3226150919962</v>
       </c>
       <c r="F4" t="n">
-        <v>477.8838208831893</v>
+        <v>569.3226150919962</v>
       </c>
       <c r="G4" t="n">
-        <v>346.6767574060326</v>
+        <v>400.2113848025542</v>
       </c>
       <c r="H4" t="n">
-        <v>187.9376705916223</v>
+        <v>241.4722979881439</v>
       </c>
       <c r="I4" t="n">
-        <v>48.25775485501623</v>
+        <v>101.7923822515376</v>
       </c>
       <c r="J4" t="n">
-        <v>48.25775485501623</v>
+        <v>48.25775485501598</v>
       </c>
       <c r="K4" t="n">
-        <v>91.87143294460999</v>
+        <v>91.87143294460918</v>
       </c>
       <c r="L4" t="n">
-        <v>203.2083598384341</v>
+        <v>203.2083598384326</v>
       </c>
       <c r="M4" t="n">
-        <v>330.9866617534283</v>
+        <v>330.986661753426</v>
       </c>
       <c r="N4" t="n">
-        <v>461.1612976692846</v>
+        <v>461.1612976692816</v>
       </c>
       <c r="O4" t="n">
-        <v>565.3823477984517</v>
+        <v>565.382347798448</v>
       </c>
       <c r="P4" t="n">
-        <v>631.0407786978469</v>
+        <v>631.0407786978426</v>
       </c>
       <c r="Q4" t="n">
-        <v>631.0407786978469</v>
+        <v>631.0407786978426</v>
       </c>
       <c r="R4" t="n">
-        <v>477.8838208831893</v>
+        <v>631.0407786978426</v>
       </c>
       <c r="S4" t="n">
-        <v>477.8838208831893</v>
+        <v>631.0407786978426</v>
       </c>
       <c r="T4" t="n">
-        <v>477.8838208831893</v>
+        <v>631.0407786978426</v>
       </c>
       <c r="U4" t="n">
-        <v>477.8838208831893</v>
+        <v>631.0407786978426</v>
       </c>
       <c r="V4" t="n">
-        <v>477.8838208831893</v>
+        <v>631.0407786978426</v>
       </c>
       <c r="W4" t="n">
-        <v>477.8838208831893</v>
+        <v>631.0407786978426</v>
       </c>
       <c r="X4" t="n">
-        <v>477.8838208831893</v>
+        <v>631.0407786978426</v>
       </c>
       <c r="Y4" t="n">
-        <v>477.8838208831893</v>
+        <v>631.0407786978426</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1409.658350833668</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C5" t="n">
-        <v>1409.658350833668</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D5" t="n">
-        <v>1051.392652226918</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="E5" t="n">
-        <v>665.6043996286735</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>711.9670495176831</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>294.00324141587</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733119</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224069</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280442</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4595,22 +4595,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2169.72394915887</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2169.72394915887</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W5" t="n">
-        <v>2169.72394915887</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X5" t="n">
-        <v>1796.25819089779</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y5" t="n">
-        <v>1796.25819089779</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="6">
@@ -4647,40 +4647,40 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D7" t="n">
-        <v>675.4941957298054</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="E7" t="n">
-        <v>527.5811021474123</v>
+        <v>430.0992512117053</v>
       </c>
       <c r="F7" t="n">
-        <v>380.6911546495019</v>
+        <v>283.209303713795</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>114.2095034521274</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1018.506281012309</v>
+        <v>808.0839286340174</v>
       </c>
       <c r="C8" t="n">
-        <v>649.5437640718976</v>
+        <v>439.1214116936057</v>
       </c>
       <c r="D8" t="n">
-        <v>291.2780654651471</v>
+        <v>80.85571308685519</v>
       </c>
       <c r="E8" t="n">
-        <v>291.2780654651471</v>
+        <v>80.85571308685519</v>
       </c>
       <c r="F8" t="n">
-        <v>284.3325647159436</v>
+        <v>73.91021233765171</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2134.880026519315</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W8" t="n">
-        <v>1782.111371249201</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X8" t="n">
-        <v>1408.645612988121</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y8" t="n">
-        <v>1018.506281012309</v>
+        <v>1194.683768698139</v>
       </c>
     </row>
     <row r="9">
@@ -4890,16 +4890,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>502.7251118619119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5021,19 +5021,19 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551629</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001593</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089263</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
@@ -5109,10 +5109,10 @@
         <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
@@ -5121,10 +5121,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193584</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>411.1769646560685</v>
+        <v>307.2453974100849</v>
       </c>
       <c r="C13" t="n">
-        <v>411.1769646560685</v>
+        <v>307.2453974100849</v>
       </c>
       <c r="D13" t="n">
-        <v>411.1769646560685</v>
+        <v>307.2453974100849</v>
       </c>
       <c r="E13" t="n">
-        <v>263.2638710736754</v>
+        <v>307.2453974100849</v>
       </c>
       <c r="F13" t="n">
-        <v>263.2638710736754</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="G13" t="n">
         <v>95.56103444839442</v>
@@ -5197,52 +5197,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953321</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442084</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927045</v>
       </c>
       <c r="M13" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892254</v>
       </c>
       <c r="N13" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598118</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.125669518532</v>
       </c>
       <c r="P13" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952191</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104706</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104706</v>
       </c>
       <c r="S13" t="n">
-        <v>1866.513008862232</v>
+        <v>1764.657581931533</v>
       </c>
       <c r="T13" t="n">
-        <v>1644.746393431758</v>
+        <v>1542.890966501059</v>
       </c>
       <c r="U13" t="n">
-        <v>1355.643526557401</v>
+        <v>1253.788099626702</v>
       </c>
       <c r="V13" t="n">
-        <v>1100.959038351514</v>
+        <v>999.1036114208154</v>
       </c>
       <c r="W13" t="n">
-        <v>813.6180086298384</v>
+        <v>709.6864413838547</v>
       </c>
       <c r="X13" t="n">
-        <v>813.6180086298384</v>
+        <v>709.6864413838547</v>
       </c>
       <c r="Y13" t="n">
-        <v>592.8254294863083</v>
+        <v>488.8938622403246</v>
       </c>
     </row>
     <row r="14">
@@ -5255,13 +5255,13 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
         <v>850.213983755162</v>
@@ -5276,25 +5276,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L14" t="n">
-        <v>1586.925993846824</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M14" t="n">
-        <v>2120.457898518748</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N14" t="n">
-        <v>2667.236715577531</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O14" t="n">
-        <v>3547.201365906985</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P14" t="n">
-        <v>4260.556453353931</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q14" t="n">
         <v>4719.034655862919</v>
@@ -5306,16 +5306,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
         <v>3150.95552873011</v>
@@ -5346,10 +5346,10 @@
         <v>341.4333205763708</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
@@ -5361,7 +5361,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>728.5338801960602</v>
+        <v>1120.662598458018</v>
       </c>
       <c r="C16" t="n">
-        <v>559.5976972681533</v>
+        <v>951.7264155301114</v>
       </c>
       <c r="D16" t="n">
-        <v>409.4810578558177</v>
+        <v>801.6097761177756</v>
       </c>
       <c r="E16" t="n">
-        <v>409.4810578558177</v>
+        <v>653.6966825353826</v>
       </c>
       <c r="F16" t="n">
-        <v>409.4810578558177</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G16" t="n">
-        <v>241.7782212305366</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5437,49 +5437,49 @@
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M16" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N16" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T16" t="n">
-        <v>1644.746393431757</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U16" t="n">
-        <v>1355.643526557401</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="V16" t="n">
-        <v>1130.97492416983</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="W16" t="n">
-        <v>1130.97492416983</v>
+        <v>1445.159680637269</v>
       </c>
       <c r="X16" t="n">
-        <v>1130.97492416983</v>
+        <v>1302.311063288258</v>
       </c>
       <c r="Y16" t="n">
-        <v>910.1823450262999</v>
+        <v>1302.311063288258</v>
       </c>
     </row>
     <row r="17">
@@ -5519,22 +5519,22 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1971.087962216427</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M17" t="n">
-        <v>2504.619866888352</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N17" t="n">
-        <v>3051.398683947134</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O17" t="n">
-        <v>3554.371154826471</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P17" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161933</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320249</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M18" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>300.0484256555951</v>
+        <v>845.1241201853859</v>
       </c>
       <c r="C19" t="n">
-        <v>131.1122427276882</v>
+        <v>676.187937257479</v>
       </c>
       <c r="D19" t="n">
-        <v>131.1122427276882</v>
+        <v>526.0712978451432</v>
       </c>
       <c r="E19" t="n">
-        <v>95.56103444839442</v>
+        <v>378.1582042627501</v>
       </c>
       <c r="F19" t="n">
-        <v>95.56103444839442</v>
+        <v>378.1582042627501</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839442</v>
+        <v>210.4553676374691</v>
       </c>
       <c r="H19" t="n">
         <v>95.56103444839442</v>
@@ -5671,13 +5671,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927025</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M19" t="n">
         <v>1005.387693892251</v>
@@ -5686,37 +5686,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.65758193153</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T19" t="n">
-        <v>1542.890966501056</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="U19" t="n">
-        <v>1253.788099626699</v>
+        <v>1475.554715057173</v>
       </c>
       <c r="V19" t="n">
-        <v>999.1036114208126</v>
+        <v>1475.554715057173</v>
       </c>
       <c r="W19" t="n">
-        <v>709.6864413838521</v>
+        <v>1475.554715057173</v>
       </c>
       <c r="X19" t="n">
-        <v>481.6968904858348</v>
+        <v>1247.565164159156</v>
       </c>
       <c r="Y19" t="n">
-        <v>481.6968904858348</v>
+        <v>1026.772585015626</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972663</v>
+        <v>1034.340101969334</v>
       </c>
       <c r="L20" t="n">
-        <v>1482.778354750621</v>
+        <v>1898.858917622689</v>
       </c>
       <c r="M20" t="n">
-        <v>2461.32865758045</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N20" t="n">
-        <v>3441.080929807096</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="21">
@@ -5820,7 +5820,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H21" t="n">
         <v>114.5683260468565</v>
@@ -5829,13 +5829,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390123</v>
       </c>
       <c r="K21" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>730.2297869963112</v>
+        <v>260.9043113423041</v>
       </c>
       <c r="C22" t="n">
-        <v>561.2936040684043</v>
+        <v>260.9043113423041</v>
       </c>
       <c r="D22" t="n">
-        <v>411.1769646560685</v>
+        <v>260.9043113423041</v>
       </c>
       <c r="E22" t="n">
-        <v>263.2638710736754</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="F22" t="n">
-        <v>263.2638710736754</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H22" t="n">
         <v>95.56103444839442</v>
@@ -5911,7 +5911,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L22" t="n">
         <v>661.2306482927024</v>
@@ -5923,37 +5923,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T22" t="n">
-        <v>1494.809721220085</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U22" t="n">
-        <v>1205.706854345728</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V22" t="n">
-        <v>951.0223661398413</v>
+        <v>999.1036114208123</v>
       </c>
       <c r="W22" t="n">
-        <v>951.0223661398413</v>
+        <v>709.6864413838516</v>
       </c>
       <c r="X22" t="n">
-        <v>951.0223661398413</v>
+        <v>481.6968904858343</v>
       </c>
       <c r="Y22" t="n">
-        <v>730.2297869963112</v>
+        <v>260.9043113423041</v>
       </c>
     </row>
     <row r="23">
@@ -5975,7 +5975,7 @@
         <v>1261.199888544771</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551634</v>
       </c>
       <c r="G23" t="n">
         <v>435.1415336001585</v>
@@ -5984,40 +5984,40 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J23" t="n">
         <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563073</v>
+        <v>1002.806306216376</v>
       </c>
       <c r="L23" t="n">
-        <v>1898.858917622688</v>
+        <v>1453.840519464785</v>
       </c>
       <c r="M23" t="n">
-        <v>2432.390822294613</v>
+        <v>2432.390822294614</v>
       </c>
       <c r="N23" t="n">
-        <v>2979.169639353395</v>
+        <v>2979.169639353396</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232733</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679679</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188667</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U23" t="n">
         <v>4208.252829604875</v>
@@ -6042,37 +6042,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C24" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320241</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6084,22 +6084,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>392.5676213586405</v>
+        <v>301.0224619425381</v>
       </c>
       <c r="C25" t="n">
-        <v>392.5676213586405</v>
+        <v>301.0224619425381</v>
       </c>
       <c r="D25" t="n">
-        <v>242.4509819463048</v>
+        <v>301.0224619425381</v>
       </c>
       <c r="E25" t="n">
         <v>242.4509819463048</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927024</v>
@@ -6160,37 +6160,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P25" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S25" t="n">
-        <v>1856.202741347632</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T25" t="n">
-        <v>1856.202741347632</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="U25" t="n">
-        <v>1567.099874473275</v>
+        <v>1475.554715057173</v>
       </c>
       <c r="V25" t="n">
-        <v>1312.415386267388</v>
+        <v>1220.870226851286</v>
       </c>
       <c r="W25" t="n">
-        <v>1022.998216230428</v>
+        <v>931.4530568143252</v>
       </c>
       <c r="X25" t="n">
-        <v>795.0086653324104</v>
+        <v>703.4635059163079</v>
       </c>
       <c r="Y25" t="n">
-        <v>574.2160861888802</v>
+        <v>482.6709267727778</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6224,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563073</v>
+        <v>932.5990189467745</v>
       </c>
       <c r="L26" t="n">
-        <v>1557.603359811481</v>
+        <v>1797.117834600129</v>
       </c>
       <c r="M26" t="n">
-        <v>2091.135264483406</v>
+        <v>2330.649739272054</v>
       </c>
       <c r="N26" t="n">
-        <v>2637.914081542188</v>
+        <v>2877.428556330836</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232732</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
@@ -6279,34 +6279,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390117</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L27" t="n">
         <v>794.200663232024</v>
@@ -6315,28 +6315,28 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.56103444839437</v>
+        <v>674.3568109459521</v>
       </c>
       <c r="C28" t="n">
-        <v>95.56103444839437</v>
+        <v>505.4206280180452</v>
       </c>
       <c r="D28" t="n">
-        <v>95.56103444839437</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839442</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F28" t="n">
         <v>95.56103444839442</v>
@@ -6397,7 +6397,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
@@ -6409,25 +6409,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T28" t="n">
-        <v>1542.890966501056</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U28" t="n">
-        <v>1253.788099626699</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V28" t="n">
-        <v>1015.408799357142</v>
+        <v>1412.55611102446</v>
       </c>
       <c r="W28" t="n">
-        <v>725.9916293201816</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X28" t="n">
-        <v>498.0020784221642</v>
+        <v>895.1493900894823</v>
       </c>
       <c r="Y28" t="n">
-        <v>277.2094992786341</v>
+        <v>674.3568109459521</v>
       </c>
     </row>
     <row r="29">
@@ -6437,52 +6437,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>1070.832524924162</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1521.86673817257</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M29" t="n">
-        <v>2055.398642844495</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N29" t="n">
-        <v>2602.177459903277</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6494,19 +6494,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
@@ -6546,7 +6546,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6582,10 +6582,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>263.2638710736754</v>
+        <v>487.6897527103525</v>
       </c>
       <c r="C31" t="n">
-        <v>263.2638710736754</v>
+        <v>487.6897527103525</v>
       </c>
       <c r="D31" t="n">
-        <v>263.2638710736754</v>
+        <v>487.6897527103525</v>
       </c>
       <c r="E31" t="n">
-        <v>263.2638710736754</v>
+        <v>339.7766591279594</v>
       </c>
       <c r="F31" t="n">
-        <v>263.2638710736754</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839442</v>
@@ -6625,7 +6625,7 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M31" t="n">
         <v>1005.387693892252</v>
@@ -6646,25 +6646,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T31" t="n">
-        <v>1542.890966501056</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U31" t="n">
-        <v>1253.7880996267</v>
+        <v>1662.222005824987</v>
       </c>
       <c r="V31" t="n">
-        <v>999.103611420813</v>
+        <v>1407.5375176191</v>
       </c>
       <c r="W31" t="n">
-        <v>709.6864413838523</v>
+        <v>1118.12034758214</v>
       </c>
       <c r="X31" t="n">
-        <v>665.7049150474453</v>
+        <v>890.1307966841223</v>
       </c>
       <c r="Y31" t="n">
-        <v>444.9123359039152</v>
+        <v>669.3382175405923</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
@@ -6701,16 +6701,16 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.569146563073</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L32" t="n">
-        <v>1557.603359811481</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M32" t="n">
-        <v>2091.135264483406</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N32" t="n">
-        <v>2637.914081542188</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O32" t="n">
         <v>3482.142110232732</v>
@@ -6725,25 +6725,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="33">
@@ -6780,10 +6780,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6832,13 +6832,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>95.56103444839442</v>
+        <v>562.5269503710301</v>
       </c>
       <c r="C34" t="n">
-        <v>95.56103444839442</v>
+        <v>393.5907674431232</v>
       </c>
       <c r="D34" t="n">
-        <v>95.56103444839442</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E34" t="n">
         <v>95.56103444839442</v>
@@ -6859,10 +6859,10 @@
         <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
-        <v>661.2306482927022</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M34" t="n">
         <v>1005.387693892251</v>
@@ -6880,28 +6880,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S34" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T34" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U34" t="n">
-        <v>1270.093287563029</v>
+        <v>1300.726250449538</v>
       </c>
       <c r="V34" t="n">
-        <v>1015.408799357142</v>
+        <v>1300.726250449538</v>
       </c>
       <c r="W34" t="n">
-        <v>725.9916293201818</v>
+        <v>1011.309080412578</v>
       </c>
       <c r="X34" t="n">
-        <v>498.0020784221645</v>
+        <v>783.3195295145603</v>
       </c>
       <c r="Y34" t="n">
-        <v>277.2094992786341</v>
+        <v>562.5269503710301</v>
       </c>
     </row>
     <row r="35">
@@ -6920,67 +6920,67 @@
         <v>1456.742661151839</v>
       </c>
       <c r="E35" t="n">
-        <v>1106.808364398085</v>
+        <v>1106.808364398086</v>
       </c>
       <c r="F35" t="n">
-        <v>731.6764154529685</v>
+        <v>731.6764154529686</v>
       </c>
       <c r="G35" t="n">
-        <v>352.4579211424556</v>
+        <v>352.4579211424557</v>
       </c>
       <c r="H35" t="n">
-        <v>90.7282765957134</v>
+        <v>90.72827659571348</v>
       </c>
       <c r="I35" t="n">
-        <v>84.58533367967279</v>
+        <v>84.5853336796728</v>
       </c>
       <c r="J35" t="n">
-        <v>273.4644646386982</v>
+        <v>349.0864751476961</v>
       </c>
       <c r="K35" t="n">
-        <v>607.2838383285448</v>
+        <v>682.9058488375426</v>
       </c>
       <c r="L35" t="n">
-        <v>1058.318051576954</v>
+        <v>1133.940062085951</v>
       </c>
       <c r="M35" t="n">
-        <v>2036.868354406782</v>
+        <v>1667.471966757876</v>
       </c>
       <c r="N35" t="n">
-        <v>3016.620626633429</v>
+        <v>2647.224238984523</v>
       </c>
       <c r="O35" t="n">
-        <v>3527.188889313977</v>
+        <v>3527.188889313978</v>
       </c>
       <c r="P35" t="n">
-        <v>3921.963255671155</v>
+        <v>3921.963255671156</v>
       </c>
       <c r="Q35" t="n">
-        <v>4170.249617426837</v>
+        <v>4170.249617426838</v>
       </c>
       <c r="R35" t="n">
-        <v>4229.266683983639</v>
+        <v>4229.26668398364</v>
       </c>
       <c r="S35" t="n">
-        <v>4154.829971355225</v>
+        <v>4154.829971355226</v>
       </c>
       <c r="T35" t="n">
-        <v>3984.706179583938</v>
+        <v>3984.706179583939</v>
       </c>
       <c r="U35" t="n">
-        <v>3767.029658702265</v>
+        <v>3767.029658702266</v>
       </c>
       <c r="V35" t="n">
-        <v>3471.820727203185</v>
+        <v>3471.820727203186</v>
       </c>
       <c r="W35" t="n">
-        <v>3154.906027777561</v>
+        <v>3154.906027777562</v>
       </c>
       <c r="X35" t="n">
-        <v>2817.294225360972</v>
+        <v>2817.294225360973</v>
       </c>
       <c r="Y35" t="n">
-        <v>2463.008849229651</v>
+        <v>2463.008849229652</v>
       </c>
     </row>
     <row r="36">
@@ -6990,37 +6990,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>959.6170717285979</v>
+        <v>959.6170717285981</v>
       </c>
       <c r="C36" t="n">
-        <v>785.1640424474709</v>
+        <v>785.1640424474712</v>
       </c>
       <c r="D36" t="n">
-        <v>636.2296327862197</v>
+        <v>636.22963278622</v>
       </c>
       <c r="E36" t="n">
-        <v>476.9921777807642</v>
+        <v>476.9921777807645</v>
       </c>
       <c r="F36" t="n">
-        <v>330.4576198076492</v>
+        <v>330.4576198076495</v>
       </c>
       <c r="G36" t="n">
-        <v>194.0945196402673</v>
+        <v>194.0945196402683</v>
       </c>
       <c r="H36" t="n">
-        <v>103.5926252781348</v>
+        <v>103.5926252781352</v>
       </c>
       <c r="I36" t="n">
-        <v>84.58533367967279</v>
+        <v>84.5853336796728</v>
       </c>
       <c r="J36" t="n">
-        <v>178.2626031702901</v>
+        <v>178.2626031702904</v>
       </c>
       <c r="K36" t="n">
-        <v>416.5268021506373</v>
+        <v>416.5268021506378</v>
       </c>
       <c r="L36" t="n">
-        <v>783.2249624633026</v>
+        <v>783.224962463303</v>
       </c>
       <c r="M36" t="n">
         <v>1230.501287685619</v>
@@ -7044,13 +7044,13 @@
         <v>2453.544519866826</v>
       </c>
       <c r="T36" t="n">
-        <v>2260.901519544681</v>
+        <v>2260.901519544682</v>
       </c>
       <c r="U36" t="n">
         <v>2032.833672679097</v>
       </c>
       <c r="V36" t="n">
-        <v>1797.681564447354</v>
+        <v>1797.681564447355</v>
       </c>
       <c r="W36" t="n">
         <v>1543.444207719153</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>797.2374854406982</v>
+        <v>582.2589880867682</v>
       </c>
       <c r="C37" t="n">
-        <v>664.1552583572819</v>
+        <v>553.1192667038626</v>
       </c>
       <c r="D37" t="n">
-        <v>549.8925747894368</v>
+        <v>438.8565831360174</v>
       </c>
       <c r="E37" t="n">
-        <v>437.8334370515344</v>
+        <v>326.7974453981149</v>
       </c>
       <c r="F37" t="n">
-        <v>326.7974453981146</v>
+        <v>326.7974453981149</v>
       </c>
       <c r="G37" t="n">
-        <v>194.9485646173243</v>
+        <v>194.9485646173244</v>
       </c>
       <c r="H37" t="n">
-        <v>84.58533367967279</v>
+        <v>84.5853336796728</v>
       </c>
       <c r="I37" t="n">
-        <v>84.58533367967279</v>
+        <v>84.5853336796728</v>
       </c>
       <c r="J37" t="n">
         <v>164.8484282497936</v>
@@ -7117,28 +7117,28 @@
         <v>2226.491462321464</v>
       </c>
       <c r="R37" t="n">
-        <v>2201.580798691428</v>
+        <v>2172.514960923482</v>
       </c>
       <c r="S37" t="n">
-        <v>2045.748870362745</v>
+        <v>2016.683032594799</v>
       </c>
       <c r="T37" t="n">
-        <v>2045.748870362745</v>
+        <v>1830.770373008816</v>
       </c>
       <c r="U37" t="n">
-        <v>1792.49995933288</v>
+        <v>1577.52146197895</v>
       </c>
       <c r="V37" t="n">
-        <v>1573.669426971483</v>
+        <v>1358.690929617554</v>
       </c>
       <c r="W37" t="n">
-        <v>1320.106212779013</v>
+        <v>1105.127715425084</v>
       </c>
       <c r="X37" t="n">
-        <v>1127.970617725487</v>
+        <v>912.9921203715569</v>
       </c>
       <c r="Y37" t="n">
-        <v>943.0319944264472</v>
+        <v>728.0534970725173</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2112.26296501002</v>
+        <v>2112.262965010021</v>
       </c>
       <c r="C38" t="n">
         <v>1779.154403914099</v>
       </c>
       <c r="D38" t="n">
-        <v>1456.742661151839</v>
+        <v>1456.74266115184</v>
       </c>
       <c r="E38" t="n">
         <v>1106.808364398086</v>
       </c>
       <c r="F38" t="n">
-        <v>731.676415452969</v>
+        <v>731.6764154529691</v>
       </c>
       <c r="G38" t="n">
         <v>352.4579211424561</v>
       </c>
       <c r="H38" t="n">
-        <v>90.7282765957134</v>
+        <v>90.7282765957135</v>
       </c>
       <c r="I38" t="n">
-        <v>84.58533367967279</v>
+        <v>84.5853336796728</v>
       </c>
       <c r="J38" t="n">
-        <v>440.8701136590512</v>
+        <v>440.8701136590513</v>
       </c>
       <c r="K38" t="n">
-        <v>774.6894873488977</v>
+        <v>1095.593445794351</v>
       </c>
       <c r="L38" t="n">
-        <v>1225.723700597307</v>
+        <v>1546.62765904276</v>
       </c>
       <c r="M38" t="n">
-        <v>1759.255605269231</v>
+        <v>2080.159563714684</v>
       </c>
       <c r="N38" t="n">
-        <v>2306.034422328014</v>
+        <v>2626.938380773467</v>
       </c>
       <c r="O38" t="n">
-        <v>2933.35707179665</v>
+        <v>3129.910851652804</v>
       </c>
       <c r="P38" t="n">
-        <v>3646.712159243596</v>
+        <v>3843.26593909975</v>
       </c>
       <c r="Q38" t="n">
-        <v>4105.190361752584</v>
+        <v>4170.249617426838</v>
       </c>
       <c r="R38" t="n">
-        <v>4229.266683983639</v>
+        <v>4229.26668398364</v>
       </c>
       <c r="S38" t="n">
-        <v>4154.829971355225</v>
+        <v>4154.829971355226</v>
       </c>
       <c r="T38" t="n">
-        <v>3984.706179583938</v>
+        <v>3984.706179583939</v>
       </c>
       <c r="U38" t="n">
-        <v>3767.029658702265</v>
+        <v>3767.029658702266</v>
       </c>
       <c r="V38" t="n">
-        <v>3471.820727203185</v>
+        <v>3471.820727203186</v>
       </c>
       <c r="W38" t="n">
         <v>3154.906027777562</v>
       </c>
       <c r="X38" t="n">
-        <v>2817.294225360972</v>
+        <v>2817.294225360973</v>
       </c>
       <c r="Y38" t="n">
-        <v>2463.008849229651</v>
+        <v>2463.008849229652</v>
       </c>
     </row>
     <row r="39">
@@ -7248,7 +7248,7 @@
         <v>103.5926252781348</v>
       </c>
       <c r="I39" t="n">
-        <v>84.58533367967279</v>
+        <v>84.5853336796728</v>
       </c>
       <c r="J39" t="n">
         <v>178.2626031702901</v>
@@ -7257,7 +7257,7 @@
         <v>416.5268021506373</v>
       </c>
       <c r="L39" t="n">
-        <v>783.2249624633026</v>
+        <v>783.2249624633027</v>
       </c>
       <c r="M39" t="n">
         <v>1230.501287685619</v>
@@ -7306,46 +7306,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>748.3459758402106</v>
+        <v>768.1716476727514</v>
       </c>
       <c r="C40" t="n">
-        <v>615.2637487567944</v>
+        <v>635.0894205893351</v>
       </c>
       <c r="D40" t="n">
-        <v>501.0010651889493</v>
+        <v>611.3642961266013</v>
       </c>
       <c r="E40" t="n">
-        <v>388.9419274510468</v>
+        <v>499.3051583886987</v>
       </c>
       <c r="F40" t="n">
-        <v>277.9059357976271</v>
+        <v>388.2691667352789</v>
       </c>
       <c r="G40" t="n">
-        <v>146.0570550168368</v>
+        <v>256.4202859544885</v>
       </c>
       <c r="H40" t="n">
-        <v>146.0570550168368</v>
+        <v>146.0570550168369</v>
       </c>
       <c r="I40" t="n">
-        <v>84.58533367967279</v>
+        <v>84.5853336796728</v>
       </c>
       <c r="J40" t="n">
-        <v>164.8484282497939</v>
+        <v>164.8484282497935</v>
       </c>
       <c r="K40" t="n">
-        <v>403.9760733218556</v>
+        <v>403.9760733218551</v>
       </c>
       <c r="L40" t="n">
-        <v>755.6763338935369</v>
+        <v>755.6763338935361</v>
       </c>
       <c r="M40" t="n">
-        <v>1134.973841616271</v>
+        <v>1134.97384161627</v>
       </c>
       <c r="N40" t="n">
-        <v>1511.522680445321</v>
+        <v>1511.52268044532</v>
       </c>
       <c r="O40" t="n">
-        <v>1845.99274148892</v>
+        <v>1845.992741488919</v>
       </c>
       <c r="P40" t="n">
         <v>2113.740704045764</v>
@@ -7354,28 +7354,28 @@
         <v>2226.491462321464</v>
       </c>
       <c r="R40" t="n">
-        <v>2226.491462321464</v>
+        <v>2172.514960923482</v>
       </c>
       <c r="S40" t="n">
-        <v>2070.659533992781</v>
+        <v>2016.683032594799</v>
       </c>
       <c r="T40" t="n">
-        <v>1884.746874406798</v>
+        <v>2016.683032594799</v>
       </c>
       <c r="U40" t="n">
-        <v>1631.497963376932</v>
+        <v>1763.434121564933</v>
       </c>
       <c r="V40" t="n">
-        <v>1412.667431015536</v>
+        <v>1544.603589203537</v>
       </c>
       <c r="W40" t="n">
-        <v>1159.104216823066</v>
+        <v>1291.040375011067</v>
       </c>
       <c r="X40" t="n">
-        <v>966.9686217695391</v>
+        <v>1098.90477995754</v>
       </c>
       <c r="Y40" t="n">
-        <v>782.0299984704998</v>
+        <v>913.9661566585005</v>
       </c>
     </row>
     <row r="41">
@@ -7394,40 +7394,40 @@
         <v>1456.742661151839</v>
       </c>
       <c r="E41" t="n">
-        <v>1106.808364398086</v>
+        <v>1106.808364398085</v>
       </c>
       <c r="F41" t="n">
-        <v>731.676415452969</v>
+        <v>731.6764154529685</v>
       </c>
       <c r="G41" t="n">
-        <v>352.4579211424561</v>
+        <v>352.4579211424557</v>
       </c>
       <c r="H41" t="n">
-        <v>90.7282765957134</v>
+        <v>90.72827659571344</v>
       </c>
       <c r="I41" t="n">
         <v>84.58533367967279</v>
       </c>
       <c r="J41" t="n">
-        <v>273.4644646386982</v>
+        <v>440.8701136590512</v>
       </c>
       <c r="K41" t="n">
-        <v>928.1877967739978</v>
+        <v>1095.593445794351</v>
       </c>
       <c r="L41" t="n">
-        <v>1379.222010022407</v>
+        <v>1546.62765904276</v>
       </c>
       <c r="M41" t="n">
-        <v>1912.753914694331</v>
+        <v>2080.159563714684</v>
       </c>
       <c r="N41" t="n">
-        <v>2459.532731753114</v>
+        <v>2626.938380773467</v>
       </c>
       <c r="O41" t="n">
-        <v>3339.497382082568</v>
+        <v>3129.910851652804</v>
       </c>
       <c r="P41" t="n">
-        <v>3734.271748439747</v>
+        <v>3843.26593909975</v>
       </c>
       <c r="Q41" t="n">
         <v>4105.190361752584</v>
@@ -7442,7 +7442,7 @@
         <v>3984.706179583938</v>
       </c>
       <c r="U41" t="n">
-        <v>3767.029658702265</v>
+        <v>3767.029658702266</v>
       </c>
       <c r="V41" t="n">
         <v>3471.820727203185</v>
@@ -7451,7 +7451,7 @@
         <v>3154.906027777562</v>
       </c>
       <c r="X41" t="n">
-        <v>2817.294225360972</v>
+        <v>2817.294225360973</v>
       </c>
       <c r="Y41" t="n">
         <v>2463.008849229651</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>582.2589880867696</v>
+        <v>635.6140773865403</v>
       </c>
       <c r="C43" t="n">
-        <v>552.0961206193796</v>
+        <v>502.531850303124</v>
       </c>
       <c r="D43" t="n">
-        <v>437.8334370515345</v>
+        <v>388.2691667352789</v>
       </c>
       <c r="E43" t="n">
-        <v>437.8334370515345</v>
+        <v>388.2691667352789</v>
       </c>
       <c r="F43" t="n">
-        <v>326.7974453981147</v>
+        <v>388.2691667352789</v>
       </c>
       <c r="G43" t="n">
-        <v>194.9485646173243</v>
+        <v>256.4202859544885</v>
       </c>
       <c r="H43" t="n">
-        <v>84.58533367967279</v>
+        <v>146.0570550168368</v>
       </c>
       <c r="I43" t="n">
         <v>84.58533367967279</v>
       </c>
       <c r="J43" t="n">
-        <v>164.8484282497936</v>
+        <v>164.8484282497932</v>
       </c>
       <c r="K43" t="n">
-        <v>403.9760733218553</v>
+        <v>403.9760733218548</v>
       </c>
       <c r="L43" t="n">
-        <v>755.6763338935365</v>
+        <v>755.6763338935366</v>
       </c>
       <c r="M43" t="n">
         <v>1134.973841616271</v>
@@ -7582,7 +7582,7 @@
         <v>1511.522680445321</v>
       </c>
       <c r="O43" t="n">
-        <v>1845.99274148892</v>
+        <v>1845.992741488919</v>
       </c>
       <c r="P43" t="n">
         <v>2113.740704045764</v>
@@ -7591,28 +7591,28 @@
         <v>2226.491462321464</v>
       </c>
       <c r="R43" t="n">
-        <v>2172.514960923483</v>
+        <v>2172.514960923482</v>
       </c>
       <c r="S43" t="n">
         <v>2016.6830325948</v>
       </c>
       <c r="T43" t="n">
-        <v>1830.770373008817</v>
+        <v>1830.770373008816</v>
       </c>
       <c r="U43" t="n">
-        <v>1577.521461978951</v>
+        <v>1577.52146197895</v>
       </c>
       <c r="V43" t="n">
-        <v>1358.690929617555</v>
+        <v>1358.690929617554</v>
       </c>
       <c r="W43" t="n">
-        <v>1105.127715425085</v>
+        <v>1105.127715425084</v>
       </c>
       <c r="X43" t="n">
-        <v>912.9921203715579</v>
+        <v>966.347209671329</v>
       </c>
       <c r="Y43" t="n">
-        <v>728.0534970725187</v>
+        <v>781.4085863722895</v>
       </c>
     </row>
     <row r="44">
@@ -7634,61 +7634,61 @@
         <v>1106.808364398085</v>
       </c>
       <c r="F44" t="n">
-        <v>731.6764154529681</v>
+        <v>731.6764154529685</v>
       </c>
       <c r="G44" t="n">
-        <v>352.4579211424552</v>
+        <v>352.4579211424556</v>
       </c>
       <c r="H44" t="n">
-        <v>90.72827659571342</v>
+        <v>90.72827659571345</v>
       </c>
       <c r="I44" t="n">
-        <v>84.58533367967277</v>
+        <v>84.58533367967279</v>
       </c>
       <c r="J44" t="n">
-        <v>396.0967161958525</v>
+        <v>440.8701136590512</v>
       </c>
       <c r="K44" t="n">
-        <v>1050.820048331152</v>
+        <v>1095.593445794351</v>
       </c>
       <c r="L44" t="n">
-        <v>1501.854261579561</v>
+        <v>1546.62765904276</v>
       </c>
       <c r="M44" t="n">
-        <v>2035.386166251486</v>
+        <v>2080.159563714684</v>
       </c>
       <c r="N44" t="n">
-        <v>2582.164983310268</v>
+        <v>2626.938380773467</v>
       </c>
       <c r="O44" t="n">
-        <v>3462.129633639723</v>
+        <v>3129.910851652804</v>
       </c>
       <c r="P44" t="n">
-        <v>3856.903999996901</v>
+        <v>3843.26593909975</v>
       </c>
       <c r="Q44" t="n">
-        <v>4105.190361752583</v>
+        <v>4170.249617426837</v>
       </c>
       <c r="R44" t="n">
-        <v>4229.266683983638</v>
+        <v>4229.266683983639</v>
       </c>
       <c r="S44" t="n">
-        <v>4154.829971355224</v>
+        <v>4154.829971355225</v>
       </c>
       <c r="T44" t="n">
-        <v>3984.706179583937</v>
+        <v>3984.706179583938</v>
       </c>
       <c r="U44" t="n">
-        <v>3767.029658702264</v>
+        <v>3767.029658702265</v>
       </c>
       <c r="V44" t="n">
         <v>3471.820727203185</v>
       </c>
       <c r="W44" t="n">
-        <v>3154.906027777562</v>
+        <v>3154.906027777561</v>
       </c>
       <c r="X44" t="n">
-        <v>2817.294225360973</v>
+        <v>2817.294225360972</v>
       </c>
       <c r="Y44" t="n">
         <v>2463.008849229651</v>
@@ -7722,7 +7722,7 @@
         <v>103.5926252781348</v>
       </c>
       <c r="I45" t="n">
-        <v>84.58533367967277</v>
+        <v>84.58533367967279</v>
       </c>
       <c r="J45" t="n">
         <v>178.2626031702901</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>821.1741127837895</v>
+        <v>611.3642961266011</v>
       </c>
       <c r="C46" t="n">
-        <v>688.0918857003733</v>
+        <v>611.3642961266011</v>
       </c>
       <c r="D46" t="n">
-        <v>573.8292021325279</v>
+        <v>611.3642961266011</v>
       </c>
       <c r="E46" t="n">
-        <v>499.3051583886985</v>
+        <v>499.3051583886986</v>
       </c>
       <c r="F46" t="n">
-        <v>388.2691667352788</v>
+        <v>388.2691667352789</v>
       </c>
       <c r="G46" t="n">
         <v>256.4202859544884</v>
@@ -7801,7 +7801,7 @@
         <v>146.0570550168368</v>
       </c>
       <c r="I46" t="n">
-        <v>84.58533367967277</v>
+        <v>84.58533367967279</v>
       </c>
       <c r="J46" t="n">
         <v>164.8484282497936</v>
@@ -7828,28 +7828,28 @@
         <v>2226.491462321464</v>
       </c>
       <c r="R46" t="n">
-        <v>2226.491462321464</v>
+        <v>2201.620268963315</v>
       </c>
       <c r="S46" t="n">
-        <v>2070.659533992781</v>
+        <v>2045.788340634632</v>
       </c>
       <c r="T46" t="n">
-        <v>1884.746874406798</v>
+        <v>1859.875681048649</v>
       </c>
       <c r="U46" t="n">
-        <v>1631.497963376932</v>
+        <v>1606.626770018783</v>
       </c>
       <c r="V46" t="n">
-        <v>1412.667431015535</v>
+        <v>1387.796237657386</v>
       </c>
       <c r="W46" t="n">
-        <v>1159.104216823065</v>
+        <v>1134.233023464916</v>
       </c>
       <c r="X46" t="n">
-        <v>966.9686217695386</v>
+        <v>942.0974284113897</v>
       </c>
       <c r="Y46" t="n">
-        <v>966.9686217695386</v>
+        <v>757.1588051123501</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>62.50551572733627</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>130.2690628128979</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>120.6810748271803</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8538,7 +8538,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747122</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8924,28 +8924,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>29.61882225792135</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9167,7 +9167,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9176,16 +9176,16 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P17" t="n">
-        <v>314.5564971416988</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,31 +9398,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>251.186781668399</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>133.2530576400255</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9638,13 +9638,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>219.3344627260173</v>
       </c>
       <c r="L23" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9872,13 +9872,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>317.5146261106144</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9887,16 +9887,16 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>288.0478149561032</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10349,7 +10349,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>288.0478149561032</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10361,7 +10361,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>76.38586920100795</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10592,13 +10592,13 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>7.672516970920128</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10823,7 +10823,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10835,16 +10835,16 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>125.6062409992929</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>79.49223896101634</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11072,13 +11072,13 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>123.8709611688435</v>
+        <v>13.77581908803248</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>123.8709611688428</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11309,16 +11309,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>79.49223896101543</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23422,10 +23422,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>101.879336949886</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,10 +23476,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>2.055378912131575</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890345</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23659,10 +23659,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -23707,19 +23707,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>29.71572696013313</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>84.2895242135163</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>111.2382664500683</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>31.00962505713683</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983809</v>
@@ -23941,22 +23941,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,25 +24127,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>127.4991334359194</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>41.33171984188557</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,10 +24187,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,10 +24367,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>88.44819745029812</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>90.62970782194004</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -24598,19 +24598,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>34.70948605375834</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -24649,16 +24649,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>16.14213605696614</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24844,19 +24844,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,13 +24886,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>214.5805418048627</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>182.1679443159942</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,16 +25072,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,10 +25129,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>16.14213605696659</v>
+        <v>135.4009219846579</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>102.9030806435056</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25321,7 +25321,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>109.9256317368856</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>60.85700412379234</v>
+        <v>60.85700412379241</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>28.77517939026631</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>184.0535329901234</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25546,13 +25546,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>110.9893814919053</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>89.6321835140603</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>109.259598628275</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>53.43673638400158</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>184.0535329901235</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25786,16 +25786,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>101.890166019866</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>110.9385463605234</v>
+        <v>110.9385463605235</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>109.9256317368855</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>60.85700412379234</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>52.82153840677392</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26023,13 +26023,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>131.7514048125821</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>113.1200567321667</v>
       </c>
       <c r="E46" t="n">
-        <v>37.15974305413239</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>53.43673638400163</v>
+        <v>28.81425495943439</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>183.0892370660491</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>901348.8565745787</v>
+        <v>901348.8565745789</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>901348.8565745789</v>
+        <v>901348.8565745788</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>901348.8565745788</v>
+        <v>901348.8565745787</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>901348.8565745788</v>
+        <v>901348.8565745789</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>915041.1606151217</v>
+        <v>915041.1606151218</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>915041.1606151217</v>
+        <v>915041.1606151218</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117846</v>
+        <v>533677.1504117845</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117841</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117841</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="E2" t="n">
+        <v>516206.3229530783</v>
+      </c>
+      <c r="F2" t="n">
         <v>516206.3229530781</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>516206.3229530783</v>
+      </c>
+      <c r="H2" t="n">
+        <v>516206.3229530785</v>
+      </c>
+      <c r="I2" t="n">
         <v>516206.3229530784</v>
       </c>
-      <c r="G2" t="n">
-        <v>516206.3229530781</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
+        <v>516206.3229530784</v>
+      </c>
+      <c r="K2" t="n">
         <v>516206.3229530783</v>
       </c>
-      <c r="I2" t="n">
+      <c r="L2" t="n">
         <v>516206.3229530785</v>
       </c>
-      <c r="J2" t="n">
-        <v>516206.3229530781</v>
-      </c>
-      <c r="K2" t="n">
-        <v>516206.3229530784</v>
-      </c>
-      <c r="L2" t="n">
-        <v>516206.322953078</v>
-      </c>
       <c r="M2" t="n">
-        <v>529407.6532343195</v>
+        <v>529407.6532343193</v>
       </c>
       <c r="N2" t="n">
-        <v>529407.6532343193</v>
+        <v>529407.6532343191</v>
       </c>
       <c r="O2" t="n">
-        <v>529407.6532343192</v>
+        <v>529407.6532343189</v>
       </c>
       <c r="P2" t="n">
-        <v>529407.6532343193</v>
+        <v>529407.6532343185</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>507203.1428394264</v>
+        <v>507203.1428394228</v>
       </c>
       <c r="C3" t="n">
-        <v>78665.28217418077</v>
+        <v>78665.28217418419</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934068</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,13 +26384,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>157829.4001410733</v>
+        <v>157829.4001410725</v>
       </c>
       <c r="K3" t="n">
-        <v>18289.94367022176</v>
+        <v>18289.94367022255</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>232017.77175472</v>
+        <v>232017.7717547209</v>
       </c>
       <c r="C4" t="n">
         <v>209922.4154630333</v>
@@ -26427,37 +26427,37 @@
         <v>28561.83935289575</v>
       </c>
       <c r="F4" t="n">
-        <v>28561.83935289572</v>
+        <v>28561.83935289574</v>
       </c>
       <c r="G4" t="n">
-        <v>28561.83935289576</v>
+        <v>28561.83935289575</v>
       </c>
       <c r="H4" t="n">
         <v>28561.83935289576</v>
       </c>
       <c r="I4" t="n">
-        <v>28561.83935289575</v>
+        <v>28561.83935289577</v>
       </c>
       <c r="J4" t="n">
-        <v>28561.83935289575</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="K4" t="n">
-        <v>28561.83935289575</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="L4" t="n">
         <v>28561.83935289575</v>
       </c>
       <c r="M4" t="n">
-        <v>55718.30868501854</v>
+        <v>55718.30868501846</v>
       </c>
       <c r="N4" t="n">
-        <v>55718.30868501851</v>
+        <v>55718.30868501846</v>
       </c>
       <c r="O4" t="n">
-        <v>55718.30868501851</v>
+        <v>55718.30868501848</v>
       </c>
       <c r="P4" t="n">
-        <v>55718.30868501847</v>
+        <v>55718.30868501848</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>77204.6887113343</v>
+        <v>77204.68871133405</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26485,10 +26485,10 @@
         <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371366</v>
@@ -26500,16 +26500,16 @@
         <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
-        <v>91026.0498212368</v>
+        <v>91026.04982123681</v>
       </c>
       <c r="N5" t="n">
-        <v>91026.0498212368</v>
+        <v>91026.04982123681</v>
       </c>
       <c r="O5" t="n">
         <v>91026.0498212368</v>
       </c>
       <c r="P5" t="n">
-        <v>91026.04982123678</v>
+        <v>91026.0498212368</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-282748.452893696</v>
+        <v>-282748.4528936932</v>
       </c>
       <c r="C6" t="n">
-        <v>162230.3747111608</v>
+        <v>162230.3747111571</v>
       </c>
       <c r="D6" t="n">
-        <v>240895.6568853413</v>
+        <v>240895.6568853414</v>
       </c>
       <c r="E6" t="n">
-        <v>-336116.4486469381</v>
+        <v>-336183.6441371636</v>
       </c>
       <c r="F6" t="n">
-        <v>391260.965346469</v>
+        <v>391193.7698562429</v>
       </c>
       <c r="G6" t="n">
-        <v>391260.9653464687</v>
+        <v>391193.769856243</v>
       </c>
       <c r="H6" t="n">
-        <v>391260.9653464688</v>
+        <v>391193.7698562433</v>
       </c>
       <c r="I6" t="n">
-        <v>391260.9653464691</v>
+        <v>391193.7698562429</v>
       </c>
       <c r="J6" t="n">
-        <v>233431.5652053954</v>
+        <v>233364.3697151707</v>
       </c>
       <c r="K6" t="n">
-        <v>372971.0216762472</v>
+        <v>372903.8261860205</v>
       </c>
       <c r="L6" t="n">
-        <v>391260.9653464686</v>
+        <v>391193.7698562433</v>
       </c>
       <c r="M6" t="n">
-        <v>258814.5035398892</v>
+        <v>258798.0823968987</v>
       </c>
       <c r="N6" t="n">
-        <v>382663.294728064</v>
+        <v>382646.8735850736</v>
       </c>
       <c r="O6" t="n">
-        <v>382663.2947280639</v>
+        <v>382646.8735850734</v>
       </c>
       <c r="P6" t="n">
-        <v>382663.2947280641</v>
+        <v>382646.873585073</v>
       </c>
     </row>
   </sheetData>
@@ -26716,13 +26716,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="N2" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="O2" t="n">
-        <v>35.49541628604575</v>
+        <v>35.4954162860457</v>
       </c>
       <c r="P2" t="n">
         <v>35.4954162860457</v>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>316.5685789688976</v>
+        <v>316.5685789688949</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>603.2219356877029</v>
+        <v>603.2219356876998</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>316.5685789688976</v>
+        <v>316.5685789688949</v>
       </c>
       <c r="C3" t="n">
-        <v>61.17508524818902</v>
+        <v>61.17508524819169</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762117</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,10 +27009,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>603.2219356877029</v>
+        <v>603.2219356876998</v>
       </c>
       <c r="C4" t="n">
-        <v>71.06533706685275</v>
+        <v>71.06533706685582</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>603.2219356877029</v>
+        <v>603.2219356876996</v>
       </c>
       <c r="K4" t="n">
-        <v>71.06533706685275</v>
+        <v>71.06533706685582</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>383.0293982413542</v>
+        <v>383.0293982413544</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,10 +27255,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>603.2219356877029</v>
+        <v>603.2219356876998</v>
       </c>
       <c r="K4" t="n">
-        <v>71.06533706685275</v>
+        <v>71.06533706685582</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27382,22 +27382,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>23.10517058152482</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>326.4414032841483</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>57.53371475304901</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27436,13 +27436,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27455,13 +27455,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>145.4310341354789</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>126.3429160502377</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>118.7309982121494</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27549,7 +27549,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>37.52512514416247</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27558,7 +27558,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>52.99928112255611</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,13 +27579,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>38.36018782739085</v>
+        <v>38.36018782739125</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>151.6253882365112</v>
       </c>
       <c r="S4" t="n">
-        <v>214.068041219212</v>
+        <v>214.0680412192121</v>
       </c>
       <c r="T4" t="n">
         <v>225.5064544755703</v>
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>215.1154121322805</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>238.1944320096679</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,10 +27667,10 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>3.552713678800501e-13</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>125.6297823812641</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27789,7 +27789,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>96.50703242634987</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>337.6297991990328</v>
+        <v>394.0166118086806</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>92.49591467042822</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-7.815970093361102e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28269,7 +28269,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>2.103206497849897e-12</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -28311,7 +28311,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>2.667851125200589e-12</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -28336,7 +28336,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="C35" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="D35" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="E35" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="F35" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="G35" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="H35" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="I35" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="T35" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="U35" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="V35" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="W35" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="X35" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="Y35" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604567</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="C37" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="D37" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="E37" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="F37" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="G37" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="H37" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="I37" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="J37" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="K37" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="L37" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="M37" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="N37" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="O37" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="P37" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="Q37" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="R37" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="S37" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="T37" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="U37" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="V37" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="W37" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="X37" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="Y37" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604567</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="C38" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="D38" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="E38" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="F38" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="G38" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="H38" t="n">
-        <v>35.49541628604521</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="I38" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="T38" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="U38" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="V38" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="W38" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="X38" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="Y38" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604567</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="C40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="D40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="E40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="F40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="G40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="H40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="I40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="J40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="K40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="L40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="M40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="N40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="O40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="P40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="Q40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="R40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="S40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="T40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="U40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="V40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="W40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="X40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="Y40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604567</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>35.49541628604575</v>
+        <v>35.4954162860457</v>
       </c>
       <c r="C41" t="n">
-        <v>35.49541628604575</v>
+        <v>35.4954162860457</v>
       </c>
       <c r="D41" t="n">
-        <v>35.49541628604575</v>
+        <v>35.4954162860457</v>
       </c>
       <c r="E41" t="n">
-        <v>35.49541628604575</v>
+        <v>35.4954162860457</v>
       </c>
       <c r="F41" t="n">
-        <v>35.49541628604575</v>
+        <v>35.4954162860457</v>
       </c>
       <c r="G41" t="n">
-        <v>35.49541628604575</v>
+        <v>35.4954162860457</v>
       </c>
       <c r="H41" t="n">
-        <v>35.49541628604521</v>
+        <v>35.4954162860457</v>
       </c>
       <c r="I41" t="n">
-        <v>35.49541628604575</v>
+        <v>35.4954162860457</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>35.49541628604575</v>
+        <v>35.4954162860457</v>
       </c>
       <c r="T41" t="n">
-        <v>35.49541628604575</v>
+        <v>35.4954162860457</v>
       </c>
       <c r="U41" t="n">
-        <v>35.49541628604575</v>
+        <v>35.4954162860457</v>
       </c>
       <c r="V41" t="n">
-        <v>35.49541628604575</v>
+        <v>35.4954162860457</v>
       </c>
       <c r="W41" t="n">
-        <v>35.49541628604575</v>
+        <v>35.4954162860457</v>
       </c>
       <c r="X41" t="n">
-        <v>35.49541628604575</v>
+        <v>35.4954162860457</v>
       </c>
       <c r="Y41" t="n">
-        <v>35.49541628604575</v>
+        <v>35.4954162860457</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.4954162860457</v>
       </c>
       <c r="C43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.4954162860457</v>
       </c>
       <c r="D43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.4954162860457</v>
       </c>
       <c r="E43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.4954162860457</v>
       </c>
       <c r="F43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.4954162860457</v>
       </c>
       <c r="G43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.4954162860457</v>
       </c>
       <c r="H43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.4954162860457</v>
       </c>
       <c r="I43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.4954162860457</v>
       </c>
       <c r="J43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.4954162860457</v>
       </c>
       <c r="K43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.4954162860457</v>
       </c>
       <c r="L43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.4954162860457</v>
       </c>
       <c r="M43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.4954162860457</v>
       </c>
       <c r="N43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.4954162860457</v>
       </c>
       <c r="O43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.4954162860457</v>
       </c>
       <c r="P43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.4954162860457</v>
       </c>
       <c r="Q43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.4954162860457</v>
       </c>
       <c r="R43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.4954162860457</v>
       </c>
       <c r="S43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.4954162860457</v>
       </c>
       <c r="T43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.4954162860457</v>
       </c>
       <c r="U43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.4954162860457</v>
       </c>
       <c r="V43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.4954162860457</v>
       </c>
       <c r="W43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.4954162860457</v>
       </c>
       <c r="X43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.4954162860457</v>
       </c>
       <c r="Y43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.4954162860457</v>
       </c>
     </row>
     <row r="44">
@@ -30757,7 +30757,7 @@
         <v>35.4954162860457</v>
       </c>
       <c r="W44" t="n">
-        <v>35.4954162860457</v>
+        <v>35.49541628604538</v>
       </c>
       <c r="X44" t="n">
         <v>35.4954162860457</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.272637503392552</v>
+        <v>1.272637503392541</v>
       </c>
       <c r="H2" t="n">
-        <v>13.03339883161898</v>
+        <v>13.03339883161887</v>
       </c>
       <c r="I2" t="n">
-        <v>49.06335734954142</v>
+        <v>49.06335734954101</v>
       </c>
       <c r="J2" t="n">
-        <v>108.0135173035637</v>
+        <v>108.0135173035628</v>
       </c>
       <c r="K2" t="n">
-        <v>161.8842628221705</v>
+        <v>161.8842628221691</v>
       </c>
       <c r="L2" t="n">
-        <v>200.8317428166204</v>
+        <v>200.8317428166187</v>
       </c>
       <c r="M2" t="n">
-        <v>223.4640100175777</v>
+        <v>223.4640100175758</v>
       </c>
       <c r="N2" t="n">
-        <v>227.0798913240918</v>
+        <v>227.0798913240899</v>
       </c>
       <c r="O2" t="n">
-        <v>214.4251021497321</v>
+        <v>214.4251021497302</v>
       </c>
       <c r="P2" t="n">
-        <v>183.0068637847284</v>
+        <v>183.0068637847268</v>
       </c>
       <c r="Q2" t="n">
-        <v>137.4305331944826</v>
+        <v>137.4305331944814</v>
       </c>
       <c r="R2" t="n">
-        <v>79.94231557248249</v>
+        <v>79.9423155724818</v>
       </c>
       <c r="S2" t="n">
-        <v>29.00022710855781</v>
+        <v>29.00022710855757</v>
       </c>
       <c r="T2" t="n">
-        <v>5.5709706711009</v>
+        <v>5.570970671100853</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1018110002714042</v>
+        <v>0.1018110002714033</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6809210943859307</v>
+        <v>0.680921094385925</v>
       </c>
       <c r="H3" t="n">
-        <v>6.576264253674648</v>
+        <v>6.576264253674593</v>
       </c>
       <c r="I3" t="n">
-        <v>23.44399381986648</v>
+        <v>23.44399381986628</v>
       </c>
       <c r="J3" t="n">
-        <v>64.33211093933042</v>
+        <v>64.33211093932988</v>
       </c>
       <c r="K3" t="n">
-        <v>109.9538242631878</v>
+        <v>109.9538242631868</v>
       </c>
       <c r="L3" t="n">
-        <v>147.8464858665592</v>
+        <v>147.846485866558</v>
       </c>
       <c r="M3" t="n">
-        <v>172.5298755380492</v>
+        <v>172.5298755380477</v>
       </c>
       <c r="N3" t="n">
-        <v>177.0962279648741</v>
+        <v>177.0962279648727</v>
       </c>
       <c r="O3" t="n">
-        <v>162.0084500313754</v>
+        <v>162.008450031374</v>
       </c>
       <c r="P3" t="n">
-        <v>130.0260640674327</v>
+        <v>130.0260640674316</v>
       </c>
       <c r="Q3" t="n">
-        <v>86.91898039915846</v>
+        <v>86.91898039915773</v>
       </c>
       <c r="R3" t="n">
-        <v>42.27683777248789</v>
+        <v>42.27683777248753</v>
       </c>
       <c r="S3" t="n">
-        <v>12.64781067861585</v>
+        <v>12.64781067861575</v>
       </c>
       <c r="T3" t="n">
-        <v>2.744589849739781</v>
+        <v>2.744589849739758</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04479744042012704</v>
+        <v>0.04479744042012666</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5708613719111267</v>
+        <v>0.570861371911122</v>
       </c>
       <c r="H4" t="n">
-        <v>5.075476561173477</v>
+        <v>5.075476561173433</v>
       </c>
       <c r="I4" t="n">
-        <v>17.16735834801825</v>
+        <v>17.16735834801811</v>
       </c>
       <c r="J4" t="n">
-        <v>40.35989899411666</v>
+        <v>40.35989899411632</v>
       </c>
       <c r="K4" t="n">
-        <v>66.3237121184018</v>
+        <v>66.32371211840125</v>
       </c>
       <c r="L4" t="n">
-        <v>84.8715170566779</v>
+        <v>84.87151705667718</v>
       </c>
       <c r="M4" t="n">
-        <v>89.48511487148689</v>
+        <v>89.48511487148613</v>
       </c>
       <c r="N4" t="n">
-        <v>87.35735884890913</v>
+        <v>87.35735884890839</v>
       </c>
       <c r="O4" t="n">
-        <v>80.68866009522002</v>
+        <v>80.68866009521935</v>
       </c>
       <c r="P4" t="n">
-        <v>69.04308810823298</v>
+        <v>69.0430881082324</v>
       </c>
       <c r="Q4" t="n">
-        <v>47.80185542430354</v>
+        <v>47.80185542430313</v>
       </c>
       <c r="R4" t="n">
-        <v>25.66800314065848</v>
+        <v>25.66800314065826</v>
       </c>
       <c r="S4" t="n">
-        <v>9.94855681776027</v>
+        <v>9.948556817760185</v>
       </c>
       <c r="T4" t="n">
-        <v>2.439134952711178</v>
+        <v>2.439134952711157</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03113789301333422</v>
+        <v>0.03113789301333396</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33281,7 +33281,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33497,7 +33497,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>96.06422794895121</v>
+        <v>96.0642279489503</v>
       </c>
       <c r="K2" t="n">
-        <v>265.9398243483547</v>
+        <v>265.9398243483533</v>
       </c>
       <c r="L2" t="n">
-        <v>382.7265423970836</v>
+        <v>382.7265423970819</v>
       </c>
       <c r="M2" t="n">
-        <v>442.6313102831374</v>
+        <v>442.6313102831355</v>
       </c>
       <c r="N2" t="n">
-        <v>435.013752139485</v>
+        <v>435.0137521394831</v>
       </c>
       <c r="O2" t="n">
-        <v>365.1270719907907</v>
+        <v>365.1270719907889</v>
       </c>
       <c r="P2" t="n">
-        <v>273.5725762009415</v>
+        <v>273.5725762009399</v>
       </c>
       <c r="Q2" t="n">
-        <v>127.4398339799378</v>
+        <v>127.4398339799366</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>63.58551961307202</v>
       </c>
       <c r="K3" t="n">
-        <v>102.3814481017267</v>
+        <v>236.5776223014064</v>
       </c>
       <c r="L3" t="n">
-        <v>380.1324513901442</v>
+        <v>380.1324513901429</v>
       </c>
       <c r="M3" t="n">
-        <v>496.1009053660308</v>
+        <v>496.1009053660293</v>
       </c>
       <c r="N3" t="n">
-        <v>525.0968902250944</v>
+        <v>525.0968902250929</v>
       </c>
       <c r="O3" t="n">
-        <v>413.2745248636604</v>
+        <v>413.2745248636591</v>
       </c>
       <c r="P3" t="n">
-        <v>314.5144252930396</v>
+        <v>116.7327314802817</v>
       </c>
       <c r="Q3" t="n">
-        <v>157.014494048986</v>
+        <v>157.0144940489853</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>44.05422029251895</v>
+        <v>44.05422029251839</v>
       </c>
       <c r="L4" t="n">
-        <v>112.461542316994</v>
+        <v>112.4615423169933</v>
       </c>
       <c r="M4" t="n">
-        <v>129.0689918333275</v>
+        <v>129.0689918333267</v>
       </c>
       <c r="N4" t="n">
-        <v>131.4895312281377</v>
+        <v>131.489531228137</v>
       </c>
       <c r="O4" t="n">
-        <v>105.2737880092597</v>
+        <v>105.273788009259</v>
       </c>
       <c r="P4" t="n">
-        <v>66.32164737312647</v>
+        <v>66.32164737312588</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35015,7 +35015,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,19 +35258,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306833</v>
       </c>
       <c r="K13" t="n">
         <v>206.0476595443196</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>485.2089366502535</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
         <v>59.61319854222478</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306623</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35887,7 +35887,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
         <v>538.9211158302268</v>
@@ -35896,16 +35896,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P17" t="n">
-        <v>713.3184833610707</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
         <v>206.0476595443196</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>588.3780682237993</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>641.3060585282446</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597767</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36291,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>556.5257492814178</v>
       </c>
       <c r="L23" t="n">
-        <v>800.2926980400159</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
         <v>552.3018354129115</v>
@@ -36516,7 +36516,7 @@
         <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36592,13 +36592,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>654.7059126660149</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
         <v>538.9211158302268</v>
@@ -36607,16 +36607,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>625.2391015115037</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36929,7 +36929,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36993,7 +36993,7 @@
         <v>206.0476595443196</v>
       </c>
       <c r="L31" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M31" t="n">
         <v>347.6333793934838</v>
@@ -37069,7 +37069,7 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>625.2391015115037</v>
       </c>
       <c r="L32" t="n">
         <v>455.5901143923322</v>
@@ -37081,7 +37081,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
         <v>720.5606943908545</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>267.1728701697205</v>
       </c>
       <c r="K35" t="n">
         <v>337.1912865554005</v>
@@ -37312,13 +37312,13 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>515.7255178591392</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
         <v>398.7619862193719</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.07383289911198</v>
+        <v>81.07383289911192</v>
       </c>
       <c r="K37" t="n">
-        <v>241.5430758303653</v>
+        <v>241.5430758303652</v>
       </c>
       <c r="L37" t="n">
-        <v>355.2527884562438</v>
+        <v>355.2527884562439</v>
       </c>
       <c r="M37" t="n">
-        <v>383.1287956795296</v>
+        <v>383.1287956795295</v>
       </c>
       <c r="N37" t="n">
-        <v>380.3523624535858</v>
+        <v>380.3523624535857</v>
       </c>
       <c r="O37" t="n">
-        <v>337.8485465086856</v>
+        <v>337.8485465086854</v>
       </c>
       <c r="P37" t="n">
-        <v>270.4524874311562</v>
+        <v>270.4524874311561</v>
       </c>
       <c r="Q37" t="n">
-        <v>113.8896548239394</v>
+        <v>113.8896548239393</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,7 +37543,7 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
         <v>455.5901143923322</v>
@@ -37555,16 +37555,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>633.6592418875121</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>330.2865437647358</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597709</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.07383289911198</v>
+        <v>81.07383289911189</v>
       </c>
       <c r="K40" t="n">
-        <v>241.5430758303653</v>
+        <v>241.5430758303652</v>
       </c>
       <c r="L40" t="n">
         <v>355.2527884562438</v>
       </c>
       <c r="M40" t="n">
-        <v>383.1287956795296</v>
+        <v>383.1287956795295</v>
       </c>
       <c r="N40" t="n">
-        <v>380.3523624535858</v>
+        <v>380.3523624535857</v>
       </c>
       <c r="O40" t="n">
-        <v>337.8485465086856</v>
+        <v>337.8485465086854</v>
       </c>
       <c r="P40" t="n">
-        <v>270.4524874311562</v>
+        <v>270.4524874311561</v>
       </c>
       <c r="Q40" t="n">
-        <v>113.8896548239394</v>
+        <v>113.8896548239393</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
         <v>661.3366991265652</v>
@@ -37792,13 +37792,13 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>374.665265972563</v>
+        <v>264.570123891752</v>
       </c>
       <c r="R41" t="n">
         <v>125.3296184152072</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597709</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.07383289911198</v>
+        <v>81.07383289911192</v>
       </c>
       <c r="K43" t="n">
         <v>241.5430758303653</v>
@@ -37950,7 +37950,7 @@
         <v>380.3523624535858</v>
       </c>
       <c r="O43" t="n">
-        <v>337.8485465086856</v>
+        <v>337.8485465086855</v>
       </c>
       <c r="P43" t="n">
         <v>270.4524874311562</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>314.6579621375553</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
         <v>661.3366991265652</v>
@@ -38029,16 +38029,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>330.2865437647349</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
